--- a/Documentation/BOMs/Watch Test Rig BOM.xlsx
+++ b/Documentation/BOMs/Watch Test Rig BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249978EB-E021-42FD-9A47-9FE1F2A75E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA570205-7FDC-46B0-B8CE-5A164FD96A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>8mm</t>
+  </si>
+  <si>
+    <t>DMN21D2UFB-7B</t>
   </si>
 </sst>
 </file>
@@ -447,21 +450,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -487,65 +490,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="3"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="3"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="3"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="3"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="3"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="3"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="3"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -568,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
@@ -585,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -595,135 +604,135 @@
       <c r="F19" s="3"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F41" s="3"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F43" s="3"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F48" s="3"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F49" s="3"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F50" s="3"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F51" s="3"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F52" s="3"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F54" s="3"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F55" s="3"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F58" s="3"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F62" s="3"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C64" s="4"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66" s="3"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F67" s="3"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F72" s="3"/>
     </row>
   </sheetData>

--- a/Documentation/BOMs/Watch Test Rig BOM.xlsx
+++ b/Documentation/BOMs/Watch Test Rig BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\OneDrive\Documents\Projects\Smart-Watch\Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bens1\Documents\Other\Projects\Smart-Watch\Documentation\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA570205-7FDC-46B0-B8CE-5A164FD96A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBB8FD9-B054-4F41-8589-C8A5BEDA4A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>DMN21D2UFB-7B</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -450,21 +453,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -490,28 +493,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" s="3"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" s="3"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" s="3"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -525,36 +528,39 @@
         <v>5</v>
       </c>
       <c r="F10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" s="3"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" s="3"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" s="3"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" s="3"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="3"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" s="3"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -573,11 +579,14 @@
       <c r="G17" t="s">
         <v>18</v>
       </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
@@ -590,11 +599,14 @@
       <c r="G18" t="s">
         <v>19</v>
       </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>20</v>
       </c>
@@ -604,135 +616,135 @@
       <c r="F19" s="3"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F24" s="3"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I25" s="1"/>
     </row>
-    <row r="40" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F41" s="3"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F42" s="3"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F43" s="3"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F45" s="3"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F48" s="3"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F49" s="3"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F50" s="3"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F51" s="3"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F52" s="3"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F54" s="3"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F55" s="3"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F58" s="3"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="F62" s="3"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C64" s="4"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:9" x14ac:dyDescent="0.3">
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F66" s="3"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F67" s="3"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:9" x14ac:dyDescent="0.3">
       <c r="F72" s="3"/>
     </row>
   </sheetData>
